--- a/VBA/サブレイアウト収集/入力ファイル（例）.xlsx
+++ b/VBA/サブレイアウト収集/入力ファイル（例）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git\PublicMemo\VBA\サブレイアウト収集\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C960BDF-7611-4FE1-A08D-4F0CEE3011CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0470D3-8C5F-493C-91C8-1EB2746425B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="期待結果" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="サブレイアウト１" sheetId="2" r:id="rId3"/>
     <sheet name="サブレイアウト２" sheetId="3" r:id="rId4"/>
     <sheet name="サブレイアウト２－１" sheetId="5" r:id="rId5"/>
-    <sheet name="サブレイアウト３" sheetId="4" r:id="rId6"/>
+    <sheet name="サブレイアウト２－２" sheetId="8" r:id="rId6"/>
+    <sheet name="サブレイアウト３" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="58">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -310,6 +311,45 @@
   </si>
   <si>
     <t>期待結果</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブレイアウト２－２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目２－２－１</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目２－２－２</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目２－２－３</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目２－２－４</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目２－２－５</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -675,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB0D131-0C71-410D-B955-E2A2AED538BD}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -995,7 +1035,7 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -1172,7 +1212,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -1241,8 +1281,8 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -1281,7 +1321,9 @@
       <c r="D3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="3">
@@ -1325,8 +1367,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
@@ -1427,13 +1469,121 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3335607-DE36-42C3-B5B3-A5C4C1C6D2BE}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <cols>
+    <col min="3" max="3" width="20.9375" customWidth="1"/>
+    <col min="4" max="4" width="18.0625" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="3">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="3">
+        <f t="shared" ref="B5:B7" si="0">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FCC9F6-2E80-4B5E-95ED-784B541D5BD9}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
